--- a/Planilhas/equipes_projeto_com_risco.xlsx
+++ b/Planilhas/equipes_projeto_com_risco.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2" t="n">
         <v>23</v>
       </c>
-      <c r="D2" t="n">
-        <v>69</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60</v>
-      </c>
       <c r="H2" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>24.75084175084175</v>
+        <v>62.74140508221227</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H3" t="n">
         <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L3" t="n">
-        <v>22.54888673765731</v>
+        <v>65.33226495726497</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
+        <v>58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>55</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66</v>
+      </c>
+      <c r="J4" t="n">
         <v>98</v>
       </c>
-      <c r="F4" t="n">
-        <v>46</v>
-      </c>
-      <c r="G4" t="n">
-        <v>62</v>
-      </c>
-      <c r="H4" t="n">
-        <v>63</v>
-      </c>
-      <c r="I4" t="n">
-        <v>73</v>
-      </c>
-      <c r="J4" t="n">
-        <v>64</v>
-      </c>
       <c r="K4" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="L4" t="n">
-        <v>77.86363636363636</v>
+        <v>68.02757158006362</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J5" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="L5" t="n">
-        <v>20.21518987341772</v>
+        <v>55.86147564887723</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J6" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>39.57854406130268</v>
+        <v>63.25936073059359</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G7" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K7" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L7" t="n">
-        <v>81.26291079812205</v>
+        <v>66.79955332216636</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" t="n">
+        <v>56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" t="n">
+        <v>88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>96</v>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="n">
-        <v>66</v>
-      </c>
-      <c r="H8" t="n">
-        <v>35</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
       <c r="K8" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>18.57142857142858</v>
+        <v>63.96278625954199</v>
       </c>
     </row>
     <row r="9">
@@ -782,36 +782,38 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94</v>
+      </c>
+      <c r="F9" t="n">
+        <v>57</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>53</v>
+      </c>
+      <c r="I9" t="n">
+        <v>91</v>
+      </c>
+      <c r="J9" t="n">
+        <v>34</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L9" t="n">
         <v>50</v>
       </c>
-      <c r="E9" t="n">
-        <v>19</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>81</v>
-      </c>
-      <c r="I9" t="n">
-        <v>44</v>
-      </c>
-      <c r="J9" t="n">
-        <v>84</v>
-      </c>
-      <c r="K9" t="n">
-        <v>68</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -820,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F10" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="H10" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J10" t="n">
         <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L10" t="n">
-        <v>34.64390572390572</v>
+        <v>23.38532743418369</v>
       </c>
     </row>
     <row r="11">
@@ -860,36 +862,38 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I11" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>56</v>
+      </c>
+      <c r="L11" t="n">
+        <v>49.99999999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,37 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I12" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K12" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="L12" t="n">
-        <v>23.42354740061162</v>
+        <v>30.15659068384538</v>
       </c>
     </row>
     <row r="13">
@@ -938,36 +942,38 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H13" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="J13" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K13" t="n">
-        <v>65</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="L13" t="n">
+        <v>50.00000000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -976,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H14" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K14" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L14" t="n">
-        <v>80.36842105263158</v>
+        <v>62.74140508221227</v>
       </c>
     </row>
     <row r="15">
@@ -1016,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G15" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H15" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I15" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J15" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="K15" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>69.21888933927846</v>
+        <v>22.60557006092254</v>
       </c>
     </row>
     <row r="16">
@@ -1056,36 +1062,38 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D16" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J16" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="K16" t="n">
-        <v>74</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20.51863354037267</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1094,37 +1102,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="L17" t="n">
-        <v>39.85394828791056</v>
+        <v>50.00000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1134,34 +1142,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="G18" t="n">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J18" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="K18" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L18" t="n">
         <v>81.42857142857143</v>
@@ -1174,36 +1182,38 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>35</v>
+      </c>
+      <c r="H19" t="n">
+        <v>72</v>
+      </c>
+      <c r="I19" t="n">
+        <v>95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>36</v>
+      </c>
+      <c r="K19" t="n">
         <v>68</v>
       </c>
-      <c r="H19" t="n">
-        <v>22</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>97</v>
-      </c>
-      <c r="K19" t="n">
-        <v>79</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>35.44372891750996</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1212,37 +1222,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
         <v>88</v>
       </c>
-      <c r="F20" t="n">
-        <v>98</v>
-      </c>
       <c r="G20" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I20" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J20" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="L20" t="n">
-        <v>76.68562760712931</v>
+        <v>23.89267015706806</v>
       </c>
     </row>
     <row r="21">
@@ -1252,37 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F21" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G21" t="n">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K21" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="L21" t="n">
-        <v>80.36842105263158</v>
+        <v>76.88535688005888</v>
       </c>
     </row>
     <row r="22">
@@ -1292,36 +1302,38 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H22" t="n">
+        <v>69</v>
+      </c>
+      <c r="I22" t="n">
         <v>29</v>
       </c>
-      <c r="I22" t="n">
-        <v>61</v>
-      </c>
       <c r="J22" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="L22" t="n">
+        <v>61.14754098360656</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1330,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="G23" t="n">
+        <v>82</v>
+      </c>
+      <c r="H23" t="n">
+        <v>84</v>
+      </c>
+      <c r="I23" t="n">
         <v>68</v>
       </c>
-      <c r="H23" t="n">
-        <v>16</v>
-      </c>
-      <c r="I23" t="n">
-        <v>62</v>
-      </c>
       <c r="J23" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>75.98611111111111</v>
+        <v>18.9074074074074</v>
       </c>
     </row>
     <row r="24">
@@ -1370,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>27</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50</v>
+      </c>
+      <c r="I24" t="n">
         <v>75</v>
       </c>
-      <c r="H24" t="n">
-        <v>61</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
-        <v>58.85119047619047</v>
+        <v>61.14754098360656</v>
       </c>
     </row>
     <row r="25">
@@ -1410,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E25" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F25" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I25" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J25" t="n">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="L25" t="n">
-        <v>81.42857142857143</v>
+        <v>69.58639673237437</v>
       </c>
     </row>
     <row r="26">
@@ -1450,37 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G26" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H26" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I26" t="n">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K26" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L26" t="n">
-        <v>72.60463192721257</v>
+        <v>23.41156840934372</v>
       </c>
     </row>
     <row r="27">
@@ -1490,37 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" t="n">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="G27" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="J27" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L27" t="n">
-        <v>40.47619047619047</v>
+        <v>24.25773195876289</v>
       </c>
     </row>
     <row r="28">
@@ -1530,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="G28" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J28" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="K28" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="L28" t="n">
-        <v>74.12373019097929</v>
+        <v>30.01842016047011</v>
       </c>
     </row>
     <row r="29">
@@ -1570,37 +1582,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G29" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H29" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I29" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K29" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="L29" t="n">
-        <v>81.26291079812205</v>
+        <v>39.18450064850843</v>
       </c>
     </row>
     <row r="30">
@@ -1610,37 +1622,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C30" t="n">
+        <v>11</v>
+      </c>
+      <c r="D30" t="n">
+        <v>40</v>
+      </c>
+      <c r="E30" t="n">
+        <v>26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>69</v>
+      </c>
+      <c r="H30" t="n">
+        <v>73</v>
+      </c>
+      <c r="I30" t="n">
+        <v>54</v>
+      </c>
+      <c r="J30" t="n">
         <v>71</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>60</v>
-      </c>
-      <c r="F30" t="n">
-        <v>19</v>
-      </c>
-      <c r="G30" t="n">
-        <v>38</v>
-      </c>
-      <c r="H30" t="n">
-        <v>18</v>
-      </c>
-      <c r="I30" t="n">
-        <v>43</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
       <c r="K30" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="L30" t="n">
-        <v>78.74603174603175</v>
+        <v>65.88025632877871</v>
       </c>
     </row>
     <row r="31">
@@ -1650,37 +1662,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D31" t="n">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G31" t="n">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="H31" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J31" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K31" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="L31" t="n">
-        <v>75.49659863945577</v>
+        <v>57.47252747252747</v>
       </c>
     </row>
     <row r="32">
@@ -1690,37 +1702,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G32" t="n">
         <v>32</v>
       </c>
       <c r="H32" t="n">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="L32" t="n">
-        <v>23.89267015706806</v>
+        <v>63.96278625954198</v>
       </c>
     </row>
     <row r="33">
@@ -1730,37 +1742,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G33" t="n">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I33" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K33" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L33" t="n">
-        <v>79.17073170731706</v>
+        <v>26.05839494267651</v>
       </c>
     </row>
     <row r="34">
@@ -1770,37 +1782,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
+        <v>79</v>
+      </c>
+      <c r="E34" t="n">
+        <v>82</v>
+      </c>
+      <c r="F34" t="n">
+        <v>60</v>
+      </c>
+      <c r="G34" t="n">
+        <v>23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>71</v>
+      </c>
+      <c r="I34" t="n">
         <v>100</v>
       </c>
-      <c r="E34" t="n">
-        <v>67</v>
-      </c>
-      <c r="F34" t="n">
-        <v>13</v>
-      </c>
-      <c r="G34" t="n">
-        <v>100</v>
-      </c>
-      <c r="H34" t="n">
-        <v>60</v>
-      </c>
-      <c r="I34" t="n">
-        <v>60</v>
-      </c>
       <c r="J34" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="K34" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>63.33333333333334</v>
+        <v>81.42857142857143</v>
       </c>
     </row>
     <row r="35">
@@ -1810,37 +1822,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E35" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G35" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H35" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I35" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J35" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K35" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>21.68992248062015</v>
+        <v>67.90361729704254</v>
       </c>
     </row>
     <row r="36">
@@ -1850,37 +1862,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C36" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="F36" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I36" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="L36" t="n">
-        <v>22.82417582417582</v>
+        <v>50.00000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1890,36 +1902,38 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>26</v>
+      </c>
+      <c r="F37" t="n">
+        <v>81</v>
+      </c>
+      <c r="G37" t="n">
+        <v>94</v>
+      </c>
+      <c r="H37" t="n">
+        <v>34</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="n">
-        <v>20</v>
-      </c>
-      <c r="F37" t="n">
-        <v>14</v>
-      </c>
-      <c r="G37" t="n">
-        <v>68</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I37" t="n">
-        <v>79</v>
-      </c>
       <c r="J37" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>18</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="L37" t="n">
+        <v>70.64516129032259</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1928,37 +1942,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D38" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G38" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H38" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J38" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" t="n">
-        <v>50</v>
+        <v>23.05797101449275</v>
       </c>
     </row>
     <row r="39">
@@ -1968,37 +1982,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E39" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F39" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G39" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H39" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I39" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J39" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="L39" t="n">
-        <v>22.36329588014981</v>
+        <v>78.95983935742971</v>
       </c>
     </row>
     <row r="40">
@@ -2008,37 +2022,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C40" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F40" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G40" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="H40" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K40" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="L40" t="n">
-        <v>27.22016079158937</v>
+        <v>68.90651558073654</v>
       </c>
     </row>
     <row r="41">
@@ -2048,37 +2062,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F41" t="n">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G41" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H41" t="n">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I41" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J41" t="n">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K41" t="n">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="L41" t="n">
-        <v>80.36842105263158</v>
+        <v>50.00000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -2088,37 +2102,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E42" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I42" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="J42" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K42" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L42" t="n">
-        <v>19.45726495726496</v>
+        <v>54.73098039215687</v>
       </c>
     </row>
     <row r="43">
@@ -2128,37 +2142,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
+        <v>44</v>
+      </c>
+      <c r="D43" t="n">
         <v>34</v>
       </c>
-      <c r="D43" t="n">
-        <v>31</v>
-      </c>
       <c r="E43" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F43" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H43" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I43" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K43" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="L43" t="n">
-        <v>78.74603174603175</v>
+        <v>74.6987374114446</v>
       </c>
     </row>
     <row r="44">
@@ -2168,37 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C44" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="G44" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H44" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I44" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="L44" t="n">
-        <v>24.01388888888889</v>
+        <v>63.83238405207486</v>
       </c>
     </row>
     <row r="45">
@@ -2208,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E45" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H45" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I45" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K45" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L45" t="n">
-        <v>24.25773195876288</v>
+        <v>63.32539682539683</v>
       </c>
     </row>
     <row r="46">
@@ -2248,37 +2262,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D46" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H46" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I46" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J46" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K46" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L46" t="n">
-        <v>80.73873873873875</v>
+        <v>58.39506172839506</v>
       </c>
     </row>
     <row r="47">
@@ -2288,37 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D47" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E47" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F47" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G47" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I47" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L47" t="n">
-        <v>23.29390681003585</v>
+        <v>78.52941176470588</v>
       </c>
     </row>
     <row r="48">
@@ -2328,37 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C48" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F48" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I48" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J48" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="L48" t="n">
-        <v>77.63670411985018</v>
+        <v>70.53231647097553</v>
       </c>
     </row>
     <row r="49">
@@ -2368,37 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E49" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F49" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H49" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I49" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J49" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="L49" t="n">
-        <v>55.84692700609655</v>
+        <v>71.84684684684684</v>
       </c>
     </row>
     <row r="50">
@@ -2408,37 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E50" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F50" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G50" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H50" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I50" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K50" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L50" t="n">
-        <v>81.42857142857143</v>
+        <v>48.21522309711287</v>
       </c>
     </row>
     <row r="51">
@@ -2448,34 +2462,34 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D51" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E51" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H51" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I51" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="J51" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K51" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="L51" t="n">
         <v>50.00000000000001</v>
@@ -2488,37 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C52" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E52" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J52" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K52" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L52" t="n">
-        <v>74.92151573538857</v>
+        <v>32.07037911583365</v>
       </c>
     </row>
     <row r="53">
@@ -2528,37 +2542,37 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E53" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F53" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I53" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="J53" t="n">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="K53" t="n">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="L53" t="n">
-        <v>75.74226804123712</v>
+        <v>77.17582417582418</v>
       </c>
     </row>
     <row r="54">
@@ -2568,37 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D54" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G54" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="H54" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="K54" t="n">
         <v>77</v>
       </c>
       <c r="L54" t="n">
-        <v>79.78481012658229</v>
+        <v>51.78477690288715</v>
       </c>
     </row>
     <row r="55">
@@ -2608,37 +2622,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D55" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E55" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F55" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G55" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H55" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I55" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K55" t="n">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="L55" t="n">
-        <v>22.13636363636364</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
@@ -2648,37 +2662,37 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C56" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D56" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E56" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F56" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G56" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H56" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J56" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K56" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L56" t="n">
-        <v>18.9074074074074</v>
+        <v>68.00533333333334</v>
       </c>
     </row>
     <row r="57">
@@ -2688,37 +2702,37 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C57" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E57" t="n">
         <v>97</v>
       </c>
       <c r="F57" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="G57" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I57" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J57" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="L57" t="n">
-        <v>81.42857142857143</v>
+        <v>69.26762690207923</v>
       </c>
     </row>
     <row r="58">
@@ -2728,37 +2742,37 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E58" t="n">
+        <v>82</v>
+      </c>
+      <c r="F58" t="n">
+        <v>47</v>
+      </c>
+      <c r="G58" t="n">
+        <v>18</v>
+      </c>
+      <c r="H58" t="n">
+        <v>67</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27</v>
+      </c>
+      <c r="J58" t="n">
         <v>20</v>
       </c>
-      <c r="F58" t="n">
-        <v>14</v>
-      </c>
-      <c r="G58" t="n">
-        <v>11</v>
-      </c>
-      <c r="H58" t="n">
-        <v>41</v>
-      </c>
-      <c r="I58" t="n">
-        <v>74</v>
-      </c>
-      <c r="J58" t="n">
-        <v>53</v>
-      </c>
       <c r="K58" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="L58" t="n">
-        <v>77.17582417582418</v>
+        <v>34.43698504729936</v>
       </c>
     </row>
     <row r="59">
@@ -2768,37 +2782,37 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
         <v>41</v>
       </c>
-      <c r="D59" t="n">
-        <v>96</v>
-      </c>
-      <c r="E59" t="n">
-        <v>29</v>
-      </c>
-      <c r="F59" t="n">
-        <v>53</v>
-      </c>
       <c r="G59" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H59" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I59" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="K59" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L59" t="n">
-        <v>20.21518987341772</v>
+        <v>74.20240716277705</v>
       </c>
     </row>
     <row r="60">
@@ -2808,37 +2822,37 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C60" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D60" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F60" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H60" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I60" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="J60" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K60" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
-        <v>25.05087014725569</v>
+        <v>31.09348441926345</v>
       </c>
     </row>
     <row r="61">
@@ -2848,36 +2862,38 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>89</v>
+      </c>
+      <c r="C61" t="n">
+        <v>52</v>
+      </c>
+      <c r="D61" t="n">
+        <v>89</v>
+      </c>
+      <c r="E61" t="n">
+        <v>61</v>
+      </c>
+      <c r="F61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" t="n">
-        <v>50</v>
-      </c>
-      <c r="D61" t="n">
-        <v>58</v>
-      </c>
-      <c r="E61" t="n">
-        <v>27</v>
-      </c>
-      <c r="F61" t="n">
-        <v>100</v>
-      </c>
       <c r="G61" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I61" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J61" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K61" t="n">
-        <v>85</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>39.6969696969697</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2886,37 +2902,37 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C62" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D62" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E62" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F62" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="G62" t="n">
         <v>32</v>
       </c>
       <c r="H62" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K62" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="L62" t="n">
-        <v>32.21572514040303</v>
+        <v>38.85245901639343</v>
       </c>
     </row>
     <row r="63">
@@ -2926,37 +2942,37 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
+        <v>13</v>
+      </c>
+      <c r="D63" t="n">
         <v>95</v>
       </c>
-      <c r="D63" t="n">
-        <v>79</v>
-      </c>
       <c r="E63" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F63" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G63" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="I63" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="J63" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="K63" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L63" t="n">
-        <v>18.73708920187793</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
@@ -2966,37 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D64" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E64" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F64" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G64" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H64" t="n">
+        <v>14</v>
+      </c>
+      <c r="I64" t="n">
+        <v>86</v>
+      </c>
+      <c r="J64" t="n">
+        <v>73</v>
+      </c>
+      <c r="K64" t="n">
         <v>34</v>
       </c>
-      <c r="I64" t="n">
-        <v>75</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>62</v>
-      </c>
       <c r="L64" t="n">
-        <v>45.04719764011799</v>
+        <v>60.37376048817695</v>
       </c>
     </row>
     <row r="65">
@@ -3006,37 +3022,37 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
+        <v>46</v>
+      </c>
+      <c r="D65" t="n">
+        <v>66</v>
+      </c>
+      <c r="E65" t="n">
+        <v>47</v>
+      </c>
+      <c r="F65" t="n">
+        <v>30</v>
+      </c>
+      <c r="G65" t="n">
+        <v>62</v>
+      </c>
+      <c r="H65" t="n">
+        <v>50</v>
+      </c>
+      <c r="I65" t="n">
         <v>95</v>
       </c>
-      <c r="D65" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" t="n">
-        <v>60</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="J65" t="n">
+        <v>30</v>
+      </c>
+      <c r="K65" t="n">
         <v>59</v>
       </c>
-      <c r="G65" t="n">
-        <v>42</v>
-      </c>
-      <c r="H65" t="n">
-        <v>86</v>
-      </c>
-      <c r="I65" t="n">
-        <v>23</v>
-      </c>
-      <c r="J65" t="n">
-        <v>93</v>
-      </c>
-      <c r="K65" t="n">
-        <v>47</v>
-      </c>
       <c r="L65" t="n">
-        <v>57.56816917084029</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66">
@@ -3046,37 +3062,37 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E66" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="G66" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H66" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I66" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K66" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
-        <v>68.74793488824102</v>
+        <v>53.38308457711442</v>
       </c>
     </row>
     <row r="67">
@@ -3086,37 +3102,37 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F67" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G67" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H67" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="J67" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K67" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L67" t="n">
-        <v>36.21176470588235</v>
+        <v>78.31007751937985</v>
       </c>
     </row>
     <row r="68">
@@ -3129,33 +3145,35 @@
         <v>46</v>
       </c>
       <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>92</v>
+      </c>
+      <c r="E68" t="n">
+        <v>32</v>
+      </c>
+      <c r="F68" t="n">
+        <v>97</v>
+      </c>
+      <c r="G68" t="n">
         <v>100</v>
       </c>
-      <c r="D68" t="n">
-        <v>35</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>5</v>
-      </c>
-      <c r="G68" t="n">
-        <v>66</v>
-      </c>
       <c r="H68" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I68" t="n">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J68" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="K68" t="n">
-        <v>25</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="L68" t="n">
+        <v>75.42961534340513</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3164,37 +3182,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E69" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="n">
         <v>95</v>
       </c>
-      <c r="G69" t="n">
-        <v>64</v>
-      </c>
       <c r="H69" t="n">
+        <v>42</v>
+      </c>
+      <c r="I69" t="n">
         <v>75</v>
       </c>
-      <c r="I69" t="n">
-        <v>35</v>
-      </c>
       <c r="J69" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="K69" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="L69" t="n">
-        <v>78.52941176470588</v>
+        <v>69.83810164927634</v>
       </c>
     </row>
     <row r="70">
@@ -3204,37 +3222,37 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
         <v>14</v>
       </c>
-      <c r="D70" t="n">
-        <v>89</v>
-      </c>
       <c r="E70" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="G70" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I70" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J70" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L70" t="n">
-        <v>19.08219178082192</v>
+        <v>70.64516129032259</v>
       </c>
     </row>
     <row r="71">
@@ -3244,37 +3262,37 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C71" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D71" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F71" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H71" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J71" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L71" t="n">
-        <v>36.91269142756557</v>
+        <v>53.63829787234043</v>
       </c>
     </row>
     <row r="72">
@@ -3284,37 +3302,37 @@
         </is>
       </c>
       <c r="B72" t="n">
+        <v>89</v>
+      </c>
+      <c r="C72" t="n">
+        <v>49</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>87</v>
+      </c>
+      <c r="F72" t="n">
+        <v>19</v>
+      </c>
+      <c r="G72" t="n">
         <v>35</v>
       </c>
-      <c r="C72" t="n">
-        <v>28</v>
-      </c>
-      <c r="D72" t="n">
-        <v>18</v>
-      </c>
-      <c r="E72" t="n">
-        <v>16</v>
-      </c>
-      <c r="F72" t="n">
-        <v>98</v>
-      </c>
-      <c r="G72" t="n">
-        <v>73</v>
-      </c>
       <c r="H72" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I72" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J72" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="L72" t="n">
-        <v>79.98290598290599</v>
+        <v>34.88888888888889</v>
       </c>
     </row>
     <row r="73">
@@ -3324,37 +3342,37 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G73" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H73" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I73" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K73" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L73" t="n">
-        <v>71.62299042431697</v>
+        <v>65.63166953528399</v>
       </c>
     </row>
     <row r="74">
@@ -3364,37 +3382,37 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D74" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F74" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G74" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I74" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J74" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K74" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L74" t="n">
-        <v>81.42857142857143</v>
+        <v>46.76800874169957</v>
       </c>
     </row>
     <row r="75">
@@ -3404,37 +3422,37 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C75" t="n">
+        <v>11</v>
+      </c>
+      <c r="D75" t="n">
+        <v>66</v>
+      </c>
+      <c r="E75" t="n">
+        <v>79</v>
+      </c>
+      <c r="F75" t="n">
+        <v>69</v>
+      </c>
+      <c r="G75" t="n">
+        <v>30</v>
+      </c>
+      <c r="H75" t="n">
+        <v>39</v>
+      </c>
+      <c r="I75" t="n">
+        <v>45</v>
+      </c>
+      <c r="J75" t="n">
         <v>31</v>
       </c>
-      <c r="D75" t="n">
-        <v>70</v>
-      </c>
-      <c r="E75" t="n">
-        <v>29</v>
-      </c>
-      <c r="F75" t="n">
-        <v>51</v>
-      </c>
-      <c r="G75" t="n">
-        <v>28</v>
-      </c>
-      <c r="H75" t="n">
-        <v>45</v>
-      </c>
-      <c r="I75" t="n">
-        <v>27</v>
-      </c>
-      <c r="J75" t="n">
-        <v>65</v>
-      </c>
       <c r="K75" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L75" t="n">
-        <v>78.52941176470588</v>
+        <v>74.96818083092866</v>
       </c>
     </row>
     <row r="76">
@@ -3444,37 +3462,37 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C76" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D76" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E76" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H76" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I76" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="J76" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K76" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="L76" t="n">
-        <v>67.34959349593498</v>
+        <v>46.4692082111437</v>
       </c>
     </row>
     <row r="77">
@@ -3484,37 +3502,37 @@
         </is>
       </c>
       <c r="B77" t="n">
+        <v>81</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>68</v>
+      </c>
+      <c r="E77" t="n">
+        <v>82</v>
+      </c>
+      <c r="F77" t="n">
+        <v>23</v>
+      </c>
+      <c r="G77" t="n">
+        <v>69</v>
+      </c>
+      <c r="H77" t="n">
+        <v>17</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29</v>
+      </c>
+      <c r="J77" t="n">
+        <v>79</v>
+      </c>
+      <c r="K77" t="n">
         <v>53</v>
       </c>
-      <c r="C77" t="n">
-        <v>58</v>
-      </c>
-      <c r="D77" t="n">
-        <v>32</v>
-      </c>
-      <c r="E77" t="n">
-        <v>45</v>
-      </c>
-      <c r="F77" t="n">
-        <v>12</v>
-      </c>
-      <c r="G77" t="n">
-        <v>11</v>
-      </c>
-      <c r="H77" t="n">
-        <v>39</v>
-      </c>
-      <c r="I77" t="n">
-        <v>100</v>
-      </c>
-      <c r="J77" t="n">
-        <v>50</v>
-      </c>
-      <c r="K77" t="n">
-        <v>85</v>
-      </c>
       <c r="L77" t="n">
-        <v>59.99667221297836</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -3524,36 +3542,38 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C78" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D78" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F78" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G78" t="n">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="H78" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I78" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J78" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K78" t="n">
-        <v>13</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="L78" t="n">
+        <v>40.79923933713665</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3562,37 +3582,37 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E79" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G79" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="I79" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
         <v>63</v>
       </c>
       <c r="K79" t="n">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="L79" t="n">
-        <v>62.02324616023245</v>
+        <v>33.41605839416058</v>
       </c>
     </row>
     <row r="80">
@@ -3602,34 +3622,34 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80" t="n">
+        <v>69</v>
+      </c>
+      <c r="D80" t="n">
+        <v>27</v>
+      </c>
+      <c r="E80" t="n">
+        <v>35</v>
+      </c>
+      <c r="F80" t="n">
         <v>65</v>
       </c>
-      <c r="D80" t="n">
-        <v>81</v>
-      </c>
-      <c r="E80" t="n">
-        <v>36</v>
-      </c>
-      <c r="F80" t="n">
-        <v>16</v>
-      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H80" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I80" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="J80" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="K80" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L80" t="n">
         <v>21.47058823529412</v>
@@ -3642,37 +3662,37 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C81" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F81" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G81" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H81" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I81" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="J81" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="L81" t="n">
-        <v>59.01666666666666</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82">
@@ -3682,34 +3702,34 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" t="n">
+        <v>82</v>
+      </c>
+      <c r="F82" t="n">
+        <v>89</v>
+      </c>
+      <c r="G82" t="n">
         <v>10</v>
       </c>
-      <c r="E82" t="n">
-        <v>92</v>
-      </c>
-      <c r="F82" t="n">
-        <v>18</v>
-      </c>
-      <c r="G82" t="n">
-        <v>86</v>
-      </c>
       <c r="H82" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I82" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J82" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="K82" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L82" t="n">
         <v>81.42857142857143</v>
@@ -3722,37 +3742,37 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C83" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E83" t="n">
+        <v>26</v>
+      </c>
+      <c r="F83" t="n">
+        <v>22</v>
+      </c>
+      <c r="G83" t="n">
+        <v>49</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+      <c r="I83" t="n">
         <v>45</v>
       </c>
-      <c r="F83" t="n">
-        <v>91</v>
-      </c>
-      <c r="G83" t="n">
-        <v>80</v>
-      </c>
-      <c r="H83" t="n">
-        <v>4</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16</v>
-      </c>
       <c r="J83" t="n">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="K83" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="L83" t="n">
-        <v>22.36329588014981</v>
+        <v>38.9536822603057</v>
       </c>
     </row>
     <row r="84">
@@ -3762,37 +3782,37 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E84" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F84" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="H84" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I84" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J84" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="L84" t="n">
-        <v>64.69261862917399</v>
+        <v>67.43589743589743</v>
       </c>
     </row>
     <row r="85">
@@ -3802,37 +3822,37 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>59</v>
+      </c>
+      <c r="C85" t="n">
         <v>33</v>
       </c>
-      <c r="C85" t="n">
-        <v>5</v>
-      </c>
       <c r="D85" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F85" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G85" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="H85" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I85" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="J85" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L85" t="n">
-        <v>78.95983935742971</v>
+        <v>67.74059405940595</v>
       </c>
     </row>
     <row r="86">
@@ -3842,37 +3862,37 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>52</v>
+      </c>
+      <c r="C86" t="n">
         <v>73</v>
       </c>
-      <c r="C86" t="n">
-        <v>27</v>
-      </c>
       <c r="D86" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E86" t="n">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F86" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G86" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H86" t="n">
+        <v>39</v>
+      </c>
+      <c r="I86" t="n">
+        <v>40</v>
+      </c>
+      <c r="J86" t="n">
         <v>37</v>
       </c>
-      <c r="I86" t="n">
-        <v>83</v>
-      </c>
-      <c r="J86" t="n">
-        <v>78</v>
-      </c>
       <c r="K86" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="L86" t="n">
-        <v>19.82251082251082</v>
+        <v>44.45370370370371</v>
       </c>
     </row>
     <row r="87">
@@ -3882,37 +3902,37 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E87" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G87" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H87" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I87" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J87" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K87" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L87" t="n">
-        <v>47.0783538371412</v>
+        <v>75.98611111111111</v>
       </c>
     </row>
     <row r="88">
@@ -3922,37 +3942,37 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C88" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E88" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F88" t="n">
         <v>89</v>
       </c>
       <c r="G88" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H88" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I88" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="J88" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K88" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="L88" t="n">
-        <v>29.20711974110034</v>
+        <v>27.54168833420004</v>
       </c>
     </row>
     <row r="89">
@@ -3962,37 +3982,37 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C89" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D89" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E89" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F89" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G89" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="H89" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I89" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="J89" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="K89" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="L89" t="n">
-        <v>66.95959595959596</v>
+        <v>37.78690202097723</v>
       </c>
     </row>
     <row r="90">
@@ -4002,37 +4022,37 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C90" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E90" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G90" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I90" t="n">
+        <v>78</v>
+      </c>
+      <c r="J90" t="n">
+        <v>89</v>
+      </c>
+      <c r="K90" t="n">
         <v>12</v>
       </c>
-      <c r="J90" t="n">
-        <v>97</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2</v>
-      </c>
       <c r="L90" t="n">
-        <v>77.17582417582418</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91">
@@ -4042,37 +4062,37 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C91" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D91" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E91" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F91" t="n">
+        <v>46</v>
+      </c>
+      <c r="G91" t="n">
+        <v>32</v>
+      </c>
+      <c r="H91" t="n">
         <v>8</v>
       </c>
-      <c r="G91" t="n">
-        <v>6</v>
-      </c>
-      <c r="H91" t="n">
-        <v>16</v>
-      </c>
       <c r="I91" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J91" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K91" t="n">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="L91" t="n">
-        <v>75.24915824915826</v>
+        <v>35.91470078635212</v>
       </c>
     </row>
     <row r="92">
@@ -4082,37 +4102,37 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C92" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E92" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G92" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H92" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="J92" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K92" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
-        <v>78.95983935742971</v>
+        <v>65.63166953528399</v>
       </c>
     </row>
     <row r="93">
@@ -4122,37 +4142,37 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C93" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D93" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G93" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H93" t="n">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J93" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="K93" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L93" t="n">
-        <v>50</v>
+        <v>68.17870188255127</v>
       </c>
     </row>
     <row r="94">
@@ -4162,37 +4182,37 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D94" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E94" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F94" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G94" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H94" t="n">
+        <v>62</v>
+      </c>
+      <c r="I94" t="n">
+        <v>35</v>
+      </c>
+      <c r="J94" t="n">
+        <v>83</v>
+      </c>
+      <c r="K94" t="n">
         <v>44</v>
       </c>
-      <c r="I94" t="n">
-        <v>81</v>
-      </c>
-      <c r="J94" t="n">
-        <v>87</v>
-      </c>
-      <c r="K94" t="n">
-        <v>98</v>
-      </c>
       <c r="L94" t="n">
-        <v>18.57142857142858</v>
+        <v>67.43589743589743</v>
       </c>
     </row>
     <row r="95">
@@ -4202,37 +4222,37 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C95" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D95" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E95" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G95" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I95" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J95" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="K95" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L95" t="n">
-        <v>21.80057803468208</v>
+        <v>36.17652690024889</v>
       </c>
     </row>
     <row r="96">
@@ -4242,37 +4262,37 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C96" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="F96" t="n">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="G96" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="H96" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I96" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J96" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K96" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="L96" t="n">
-        <v>52.14151515151514</v>
+        <v>70.64516129032259</v>
       </c>
     </row>
     <row r="97">
@@ -4282,37 +4302,37 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E97" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F97" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H97" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I97" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="J97" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="K97" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="L97" t="n">
-        <v>81.42857142857143</v>
+        <v>38.85245901639343</v>
       </c>
     </row>
     <row r="98">
@@ -4322,37 +4342,37 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E98" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F98" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G98" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H98" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I98" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J98" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="K98" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L98" t="n">
-        <v>75.74226804123711</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99">
@@ -4362,37 +4382,37 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C99" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E99" t="n">
+        <v>20</v>
+      </c>
+      <c r="F99" t="n">
+        <v>33</v>
+      </c>
+      <c r="G99" t="n">
+        <v>72</v>
+      </c>
+      <c r="H99" t="n">
+        <v>59</v>
+      </c>
+      <c r="I99" t="n">
+        <v>60</v>
+      </c>
+      <c r="J99" t="n">
+        <v>69</v>
+      </c>
+      <c r="K99" t="n">
         <v>57</v>
       </c>
-      <c r="F99" t="n">
-        <v>88</v>
-      </c>
-      <c r="G99" t="n">
-        <v>35</v>
-      </c>
-      <c r="H99" t="n">
-        <v>18</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4</v>
-      </c>
-      <c r="K99" t="n">
-        <v>27</v>
-      </c>
       <c r="L99" t="n">
-        <v>53.24352019288727</v>
+        <v>27.73654916512059</v>
       </c>
     </row>
     <row r="100">
@@ -4402,37 +4422,37 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C100" t="n">
+        <v>52</v>
+      </c>
+      <c r="D100" t="n">
+        <v>44</v>
+      </c>
+      <c r="E100" t="n">
+        <v>16</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15</v>
+      </c>
+      <c r="H100" t="n">
+        <v>63</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23</v>
+      </c>
+      <c r="J100" t="n">
+        <v>67</v>
+      </c>
+      <c r="K100" t="n">
         <v>76</v>
       </c>
-      <c r="D100" t="n">
-        <v>68</v>
-      </c>
-      <c r="E100" t="n">
-        <v>66</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>9</v>
-      </c>
-      <c r="H100" t="n">
-        <v>60</v>
-      </c>
-      <c r="I100" t="n">
-        <v>55</v>
-      </c>
-      <c r="J100" t="n">
-        <v>28</v>
-      </c>
-      <c r="K100" t="n">
-        <v>73</v>
-      </c>
       <c r="L100" t="n">
-        <v>20.82926829268293</v>
+        <v>54.75524475524475</v>
       </c>
     </row>
     <row r="101">
@@ -4442,37 +4462,37 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D101" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E101" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F101" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="G101" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H101" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I101" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K101" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L101" t="n">
-        <v>70.77714285714286</v>
+        <v>73.81472422279597</v>
       </c>
     </row>
   </sheetData>
